--- a/Data/400campersData.xlsx
+++ b/Data/400campersData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirad/PycharmProjects/AIFinalProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30BD5E-1DBA-0742-9512-D1A5BCCB0ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568FCEA1-0D00-6047-8FDB-40F341DC4403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="446">
   <si>
     <t>Camper's name</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Yoav Malka</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Ayelet Pony</t>
   </si>
   <si>
@@ -1355,6 +1352,12 @@
   </si>
   <si>
     <t>Shir Ben-Ami</t>
+  </si>
+  <si>
+    <t>Galit Asher Sarig</t>
+  </si>
+  <si>
+    <t>Amir Golan Shahar</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1767,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1824,7 +1827,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1944,7 +1947,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -2784,7 +2787,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3004,7 +3007,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -3184,7 +3187,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -3244,7 +3247,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -3264,7 +3267,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -3324,7 +3327,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -3384,7 +3387,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -3424,7 +3427,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -3444,7 +3447,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
@@ -3484,7 +3487,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -3564,7 +3567,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
@@ -3664,7 +3667,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -3684,7 +3687,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -3744,7 +3747,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -3764,7 +3767,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3804,7 +3807,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
@@ -3824,7 +3827,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3884,7 +3887,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>208</v>
+        <v>444</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
@@ -3904,7 +3907,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -3924,7 +3927,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -3944,7 +3947,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
@@ -3964,7 +3967,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -3984,7 +3987,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
@@ -4044,7 +4047,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -4104,7 +4107,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -4164,7 +4167,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -4184,7 +4187,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B125" t="s">
         <v>27</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -4264,7 +4267,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -4284,7 +4287,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
         <v>27</v>
@@ -4304,7 +4307,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
         <v>23</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B132" t="s">
         <v>23</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133" t="s">
         <v>23</v>
@@ -4404,7 +4407,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B134" t="s">
         <v>15</v>
@@ -4424,7 +4427,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
         <v>27</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -4484,7 +4487,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -4504,7 +4507,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
@@ -4564,7 +4567,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
@@ -4624,7 +4627,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
@@ -4664,7 +4667,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
@@ -4684,7 +4687,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B149" t="s">
         <v>15</v>
@@ -4724,7 +4727,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -4744,7 +4747,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B151" t="s">
         <v>27</v>
@@ -4764,7 +4767,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
@@ -4784,7 +4787,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
         <v>27</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B154" t="s">
         <v>23</v>
@@ -4864,7 +4867,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
         <v>23</v>
@@ -4884,7 +4887,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
         <v>15</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B159" t="s">
         <v>23</v>
@@ -4944,7 +4947,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B161" t="s">
         <v>23</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B163" t="s">
         <v>23</v>
@@ -5004,7 +5007,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -5024,7 +5027,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B165" t="s">
         <v>15</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
         <v>23</v>
@@ -5064,7 +5067,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -5084,7 +5087,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
@@ -5144,7 +5147,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B171" t="s">
         <v>15</v>
@@ -5164,7 +5167,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172" t="s">
         <v>23</v>
@@ -5184,7 +5187,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B173" t="s">
         <v>23</v>
@@ -5204,7 +5207,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174" t="s">
         <v>15</v>
@@ -5224,7 +5227,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -5244,7 +5247,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
@@ -5264,7 +5267,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -5284,7 +5287,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B180" t="s">
         <v>15</v>
@@ -5344,7 +5347,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -5364,7 +5367,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B183" t="s">
         <v>15</v>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
@@ -5484,7 +5487,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
@@ -5504,7 +5507,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s">
         <v>23</v>
@@ -5544,7 +5547,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B191" t="s">
         <v>23</v>
@@ -5564,7 +5567,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -5604,7 +5607,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B194" t="s">
         <v>23</v>
@@ -5624,7 +5627,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -5664,7 +5667,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -5704,7 +5707,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
@@ -5724,7 +5727,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B200" t="s">
         <v>23</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
@@ -5764,7 +5767,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -5784,7 +5787,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
@@ -5804,7 +5807,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B204" t="s">
         <v>27</v>
@@ -5824,7 +5827,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>23</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -5864,7 +5867,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B207" t="s">
         <v>23</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -5904,7 +5907,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -5924,7 +5927,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
@@ -5944,7 +5947,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B211" t="s">
         <v>23</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
@@ -5984,7 +5987,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -6004,7 +6007,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B214" t="s">
         <v>23</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -6104,7 +6107,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" t="s">
         <v>23</v>
@@ -6184,7 +6187,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
@@ -6204,7 +6207,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -6264,7 +6267,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B227" t="s">
         <v>23</v>
@@ -6284,7 +6287,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B229" t="s">
         <v>23</v>
@@ -6324,7 +6327,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -6364,7 +6367,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" t="s">
         <v>15</v>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B234" t="s">
         <v>23</v>
@@ -6424,7 +6427,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -6464,7 +6467,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
@@ -6484,7 +6487,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -6524,7 +6527,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -6544,7 +6547,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -6564,7 +6567,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -6584,7 +6587,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B243" t="s">
         <v>23</v>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -6664,7 +6667,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
@@ -6684,7 +6687,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B249" t="s">
         <v>15</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B251" t="s">
         <v>15</v>
@@ -6764,7 +6767,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B252" t="s">
         <v>23</v>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
@@ -6804,7 +6807,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B254" t="s">
         <v>23</v>
@@ -6824,7 +6827,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -6844,7 +6847,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B256" t="s">
         <v>27</v>
@@ -6864,7 +6867,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B257" t="s">
         <v>23</v>
@@ -6884,7 +6887,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B258" t="s">
         <v>23</v>
@@ -6924,7 +6927,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B260" t="s">
         <v>23</v>
@@ -6944,7 +6947,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B261" t="s">
         <v>23</v>
@@ -6964,7 +6967,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B262" t="s">
         <v>23</v>
@@ -6984,7 +6987,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -7004,7 +7007,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B264" t="s">
         <v>27</v>
@@ -7024,7 +7027,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -7044,7 +7047,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
@@ -7064,7 +7067,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
@@ -7124,7 +7127,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -7164,7 +7167,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -7184,7 +7187,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
@@ -7204,7 +7207,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" t="s">
         <v>15</v>
@@ -7244,7 +7247,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B276" t="s">
         <v>23</v>
@@ -7304,7 +7307,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B279" t="s">
         <v>15</v>
@@ -7324,7 +7327,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B280" t="s">
         <v>15</v>
@@ -7344,7 +7347,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B281" t="s">
         <v>23</v>
@@ -7364,7 +7367,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B282" t="s">
         <v>23</v>
@@ -7404,7 +7407,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B284" t="s">
         <v>27</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B285" t="s">
         <v>27</v>
@@ -7444,7 +7447,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -7464,7 +7467,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -7484,7 +7487,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B288" t="s">
         <v>23</v>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
@@ -7524,7 +7527,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B290" t="s">
         <v>23</v>
@@ -7544,7 +7547,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B291" t="s">
         <v>15</v>
@@ -7584,7 +7587,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B293" t="s">
         <v>15</v>
@@ -7604,7 +7607,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B294" t="s">
         <v>23</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B295" t="s">
         <v>15</v>
@@ -7644,7 +7647,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -7724,7 +7727,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -7744,7 +7747,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B301" t="s">
         <v>27</v>
@@ -7764,7 +7767,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -7784,7 +7787,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B303" t="s">
         <v>23</v>
@@ -7804,7 +7807,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -7824,7 +7827,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B305" t="s">
         <v>23</v>
@@ -7844,7 +7847,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -7864,7 +7867,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B307" t="s">
         <v>15</v>
@@ -7884,7 +7887,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B308" t="s">
         <v>27</v>
@@ -7904,7 +7907,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B309" t="s">
         <v>23</v>
@@ -7944,7 +7947,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B311" t="s">
         <v>15</v>
@@ -7964,7 +7967,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B312" t="s">
         <v>15</v>
@@ -7984,7 +7987,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -8004,7 +8007,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B314" t="s">
         <v>15</v>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B315" t="s">
         <v>23</v>
@@ -8064,7 +8067,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B317" t="s">
         <v>15</v>
@@ -8084,7 +8087,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B318" t="s">
         <v>23</v>
@@ -8104,7 +8107,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" t="s">
         <v>15</v>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B320" t="s">
         <v>27</v>
@@ -8164,7 +8167,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
@@ -8184,7 +8187,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B323" t="s">
         <v>23</v>
@@ -8204,7 +8207,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B324" t="s">
         <v>23</v>
@@ -8244,7 +8247,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
@@ -8264,7 +8267,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
@@ -8284,7 +8287,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B328" t="s">
         <v>15</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B329" t="s">
         <v>23</v>
@@ -8324,7 +8327,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B330" t="s">
         <v>23</v>
@@ -8344,7 +8347,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B331" t="s">
         <v>23</v>
@@ -8364,7 +8367,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B332" t="s">
         <v>15</v>
@@ -8384,7 +8387,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B333" t="s">
         <v>23</v>
@@ -8404,7 +8407,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -8424,7 +8427,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B335" t="s">
         <v>15</v>
@@ -8464,7 +8467,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B337" t="s">
         <v>27</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -8504,7 +8507,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B339" t="s">
         <v>23</v>
@@ -8524,7 +8527,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -8544,7 +8547,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B341" t="s">
         <v>15</v>
@@ -8584,7 +8587,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
@@ -8604,7 +8607,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B344" t="s">
         <v>15</v>
@@ -8624,7 +8627,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B345" t="s">
         <v>23</v>
@@ -8644,7 +8647,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B346" t="s">
         <v>15</v>
@@ -8664,7 +8667,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B347" t="s">
         <v>23</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -8704,7 +8707,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -8724,7 +8727,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B350" t="s">
         <v>15</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B351" t="s">
         <v>23</v>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -8784,7 +8787,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -8804,7 +8807,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B354" t="s">
         <v>27</v>
@@ -8824,7 +8827,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B355" t="s">
         <v>23</v>
@@ -8864,7 +8867,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -8884,7 +8887,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -8904,7 +8907,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B359" t="s">
         <v>15</v>
@@ -8924,7 +8927,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>23</v>
@@ -8944,7 +8947,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B362" t="s">
         <v>23</v>
@@ -9004,7 +9007,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -9024,7 +9027,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -9044,7 +9047,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B366" t="s">
         <v>23</v>
@@ -9064,7 +9067,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -9084,7 +9087,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B368" t="s">
         <v>23</v>
@@ -9104,7 +9107,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B369" t="s">
         <v>23</v>
@@ -9124,7 +9127,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -9144,7 +9147,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -9164,7 +9167,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -9204,7 +9207,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -9224,7 +9227,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B375" t="s">
         <v>15</v>
@@ -9244,7 +9247,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B376" t="s">
         <v>23</v>
@@ -9264,7 +9267,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B377" t="s">
         <v>23</v>
@@ -9304,7 +9307,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -9324,7 +9327,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -9344,7 +9347,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B381" t="s">
         <v>15</v>
@@ -9364,7 +9367,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B382" t="s">
         <v>27</v>
@@ -9384,7 +9387,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B383" t="s">
         <v>15</v>
@@ -9439,12 +9442,12 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -9464,7 +9467,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B387" t="s">
         <v>23</v>
@@ -9484,7 +9487,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B388" t="s">
         <v>23</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -9524,7 +9527,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B390" t="s">
         <v>27</v>
@@ -9544,7 +9547,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -9564,7 +9567,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B392" t="s">
         <v>27</v>
@@ -9584,7 +9587,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -9604,7 +9607,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B394" t="s">
         <v>15</v>
@@ -9624,7 +9627,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>23</v>
@@ -9684,7 +9687,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -9704,7 +9707,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B399" t="s">
         <v>15</v>
@@ -9724,7 +9727,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -9744,7 +9747,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
